--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject47.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject47.xlsx
@@ -56,74 +56,74 @@
   <dimension ref="A1:BP68"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.16796875" customWidth="true"/>
-    <col min="2" max="2" width="2.16796875" customWidth="true"/>
-    <col min="3" max="3" width="2.16796875" customWidth="true"/>
-    <col min="4" max="4" width="2.16796875" customWidth="true"/>
-    <col min="5" max="5" width="2.16796875" customWidth="true"/>
-    <col min="6" max="6" width="2.16796875" customWidth="true"/>
-    <col min="7" max="7" width="2.16796875" customWidth="true"/>
-    <col min="8" max="8" width="2.16796875" customWidth="true"/>
-    <col min="9" max="9" width="2.16796875" customWidth="true"/>
-    <col min="10" max="10" width="2.16796875" customWidth="true"/>
-    <col min="11" max="11" width="2.16796875" customWidth="true"/>
-    <col min="12" max="12" width="2.16796875" customWidth="true"/>
-    <col min="13" max="13" width="2.16796875" customWidth="true"/>
-    <col min="14" max="14" width="2.16796875" customWidth="true"/>
-    <col min="15" max="15" width="2.16796875" customWidth="true"/>
-    <col min="16" max="16" width="2.16796875" customWidth="true"/>
-    <col min="17" max="17" width="2.16796875" customWidth="true"/>
-    <col min="18" max="18" width="2.16796875" customWidth="true"/>
-    <col min="19" max="19" width="2.16796875" customWidth="true"/>
-    <col min="20" max="20" width="2.16796875" customWidth="true"/>
-    <col min="21" max="21" width="2.16796875" customWidth="true"/>
-    <col min="22" max="22" width="2.16796875" customWidth="true"/>
-    <col min="23" max="23" width="2.16796875" customWidth="true"/>
-    <col min="24" max="24" width="2.16796875" customWidth="true"/>
-    <col min="25" max="25" width="2.16796875" customWidth="true"/>
-    <col min="26" max="26" width="2.16796875" customWidth="true"/>
-    <col min="27" max="27" width="2.16796875" customWidth="true"/>
-    <col min="28" max="28" width="2.16796875" customWidth="true"/>
-    <col min="29" max="29" width="2.16796875" customWidth="true"/>
-    <col min="30" max="30" width="2.16796875" customWidth="true"/>
-    <col min="31" max="31" width="2.16796875" customWidth="true"/>
-    <col min="32" max="32" width="2.16796875" customWidth="true"/>
-    <col min="33" max="33" width="2.16796875" customWidth="true"/>
-    <col min="34" max="34" width="2.16796875" customWidth="true"/>
-    <col min="35" max="35" width="2.16796875" customWidth="true"/>
-    <col min="36" max="36" width="2.16796875" customWidth="true"/>
-    <col min="37" max="37" width="2.16796875" customWidth="true"/>
-    <col min="38" max="38" width="2.16796875" customWidth="true"/>
-    <col min="39" max="39" width="2.16796875" customWidth="true"/>
-    <col min="40" max="40" width="2.16796875" customWidth="true"/>
-    <col min="41" max="41" width="2.16796875" customWidth="true"/>
-    <col min="42" max="42" width="2.16796875" customWidth="true"/>
-    <col min="43" max="43" width="2.16796875" customWidth="true"/>
-    <col min="44" max="44" width="2.16796875" customWidth="true"/>
-    <col min="45" max="45" width="2.16796875" customWidth="true"/>
-    <col min="46" max="46" width="2.16796875" customWidth="true"/>
-    <col min="47" max="47" width="2.16796875" customWidth="true"/>
-    <col min="48" max="48" width="2.16796875" customWidth="true"/>
-    <col min="49" max="49" width="2.16796875" customWidth="true"/>
-    <col min="50" max="50" width="2.16796875" customWidth="true"/>
-    <col min="51" max="51" width="2.16796875" customWidth="true"/>
-    <col min="52" max="52" width="2.16796875" customWidth="true"/>
-    <col min="53" max="53" width="2.16796875" customWidth="true"/>
-    <col min="54" max="54" width="2.16796875" customWidth="true"/>
-    <col min="55" max="55" width="2.16796875" customWidth="true"/>
-    <col min="56" max="56" width="2.16796875" customWidth="true"/>
-    <col min="57" max="57" width="2.16796875" customWidth="true"/>
-    <col min="58" max="58" width="2.16796875" customWidth="true"/>
-    <col min="59" max="59" width="2.16796875" customWidth="true"/>
-    <col min="60" max="60" width="2.16796875" customWidth="true"/>
-    <col min="61" max="61" width="2.16796875" customWidth="true"/>
-    <col min="62" max="62" width="2.16796875" customWidth="true"/>
-    <col min="63" max="63" width="2.16796875" customWidth="true"/>
-    <col min="64" max="64" width="2.16796875" customWidth="true"/>
-    <col min="65" max="65" width="2.16796875" customWidth="true"/>
-    <col min="66" max="66" width="2.16796875" customWidth="true"/>
-    <col min="67" max="67" width="2.16796875" customWidth="true"/>
-    <col min="68" max="68" width="2.16796875" customWidth="true"/>
+    <col min="1" max="1" width="12.7109375" customWidth="true"/>
+    <col min="2" max="2" width="12.7109375" customWidth="true"/>
+    <col min="3" max="3" width="12.7109375" customWidth="true"/>
+    <col min="4" max="4" width="12.7109375" customWidth="true"/>
+    <col min="5" max="5" width="12.7109375" customWidth="true"/>
+    <col min="6" max="6" width="12.7109375" customWidth="true"/>
+    <col min="7" max="7" width="12.7109375" customWidth="true"/>
+    <col min="8" max="8" width="12.7109375" customWidth="true"/>
+    <col min="9" max="9" width="12.7109375" customWidth="true"/>
+    <col min="10" max="10" width="12.7109375" customWidth="true"/>
+    <col min="11" max="11" width="12.7109375" customWidth="true"/>
+    <col min="12" max="12" width="12.7109375" customWidth="true"/>
+    <col min="13" max="13" width="12.7109375" customWidth="true"/>
+    <col min="14" max="14" width="12.7109375" customWidth="true"/>
+    <col min="15" max="15" width="12.7109375" customWidth="true"/>
+    <col min="16" max="16" width="12.7109375" customWidth="true"/>
+    <col min="17" max="17" width="12.7109375" customWidth="true"/>
+    <col min="18" max="18" width="12.7109375" customWidth="true"/>
+    <col min="19" max="19" width="12.7109375" customWidth="true"/>
+    <col min="20" max="20" width="12.7109375" customWidth="true"/>
+    <col min="21" max="21" width="12.7109375" customWidth="true"/>
+    <col min="22" max="22" width="12.7109375" customWidth="true"/>
+    <col min="23" max="23" width="12.7109375" customWidth="true"/>
+    <col min="24" max="24" width="12.7109375" customWidth="true"/>
+    <col min="25" max="25" width="12.7109375" customWidth="true"/>
+    <col min="26" max="26" width="12.7109375" customWidth="true"/>
+    <col min="27" max="27" width="12.7109375" customWidth="true"/>
+    <col min="28" max="28" width="12.7109375" customWidth="true"/>
+    <col min="29" max="29" width="12.7109375" customWidth="true"/>
+    <col min="30" max="30" width="12.7109375" customWidth="true"/>
+    <col min="31" max="31" width="12.7109375" customWidth="true"/>
+    <col min="32" max="32" width="12.7109375" customWidth="true"/>
+    <col min="33" max="33" width="12.7109375" customWidth="true"/>
+    <col min="34" max="34" width="12.7109375" customWidth="true"/>
+    <col min="35" max="35" width="12.7109375" customWidth="true"/>
+    <col min="36" max="36" width="12.7109375" customWidth="true"/>
+    <col min="37" max="37" width="12.7109375" customWidth="true"/>
+    <col min="38" max="38" width="12.7109375" customWidth="true"/>
+    <col min="39" max="39" width="12.7109375" customWidth="true"/>
+    <col min="40" max="40" width="12.7109375" customWidth="true"/>
+    <col min="41" max="41" width="12.7109375" customWidth="true"/>
+    <col min="42" max="42" width="12.7109375" customWidth="true"/>
+    <col min="43" max="43" width="12.7109375" customWidth="true"/>
+    <col min="44" max="44" width="12.7109375" customWidth="true"/>
+    <col min="45" max="45" width="12.7109375" customWidth="true"/>
+    <col min="46" max="46" width="12.7109375" customWidth="true"/>
+    <col min="47" max="47" width="12.7109375" customWidth="true"/>
+    <col min="48" max="48" width="12.7109375" customWidth="true"/>
+    <col min="49" max="49" width="12.7109375" customWidth="true"/>
+    <col min="50" max="50" width="12.7109375" customWidth="true"/>
+    <col min="51" max="51" width="12.7109375" customWidth="true"/>
+    <col min="52" max="52" width="12.7109375" customWidth="true"/>
+    <col min="53" max="53" width="12.7109375" customWidth="true"/>
+    <col min="54" max="54" width="12.7109375" customWidth="true"/>
+    <col min="55" max="55" width="12.7109375" customWidth="true"/>
+    <col min="56" max="56" width="12.7109375" customWidth="true"/>
+    <col min="57" max="57" width="12.7109375" customWidth="true"/>
+    <col min="58" max="58" width="12.7109375" customWidth="true"/>
+    <col min="59" max="59" width="12.7109375" customWidth="true"/>
+    <col min="60" max="60" width="12.7109375" customWidth="true"/>
+    <col min="61" max="61" width="12.7109375" customWidth="true"/>
+    <col min="62" max="62" width="12.7109375" customWidth="true"/>
+    <col min="63" max="63" width="12.7109375" customWidth="true"/>
+    <col min="64" max="64" width="12.7109375" customWidth="true"/>
+    <col min="65" max="65" width="12.7109375" customWidth="true"/>
+    <col min="66" max="66" width="12.7109375" customWidth="true"/>
+    <col min="67" max="67" width="12.7109375" customWidth="true"/>
+    <col min="68" max="68" width="12.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -131,10 +131,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1" s="0">
-        <v>1</v>
+        <v>0.99380244616658719</v>
       </c>
       <c r="D1" s="0">
         <v>0</v>
@@ -149,7 +149,7 @@
         <v>0</v>
       </c>
       <c r="H1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I1" s="0">
         <v>0</v>
@@ -254,7 +254,7 @@
         <v>0</v>
       </c>
       <c r="AQ1" s="0">
-        <v>0</v>
+        <v>0.71319126904431929</v>
       </c>
       <c r="AR1" s="0">
         <v>0</v>
@@ -317,7 +317,7 @@
         <v>0</v>
       </c>
       <c r="BL1" s="0">
-        <v>0</v>
+        <v>0.92928640708498456</v>
       </c>
       <c r="BM1" s="0">
         <v>0</v>
@@ -326,24 +326,24 @@
         <v>0</v>
       </c>
       <c r="BO1" s="0">
-        <v>1</v>
+        <v>0.52975439074784181</v>
       </c>
       <c r="BP1" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0</v>
+        <v>0.91898594927626343</v>
       </c>
       <c r="D2" s="0">
-        <v>1</v>
+        <v>0.61858867582384591</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="AP2" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ2" s="0">
         <v>0</v>
@@ -540,19 +540,19 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>1</v>
+        <v>0.98889472464286743</v>
       </c>
       <c r="B3" s="0">
-        <v>0</v>
+        <v>0.88206490068141097</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>1</v>
+        <v>0.97159679339031357</v>
       </c>
       <c r="E3" s="0">
-        <v>1</v>
+        <v>0.99689713480146014</v>
       </c>
       <c r="F3" s="0">
         <v>0</v>
@@ -749,19 +749,19 @@
         <v>0</v>
       </c>
       <c r="B4" s="0">
-        <v>1</v>
+        <v>0.97651111671114255</v>
       </c>
       <c r="C4" s="0">
-        <v>1</v>
+        <v>0.86014516534351948</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>1</v>
+        <v>0.9499643794600221</v>
       </c>
       <c r="F4" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="0">
-        <v>0</v>
+        <v>0.51758605816698267</v>
       </c>
       <c r="BO4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>1</v>
+        <v>0.90874913661527779</v>
       </c>
       <c r="D5" s="0">
-        <v>1</v>
+        <v>0.66447866020094914</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>1</v>
+        <v>0.6489113536300064</v>
       </c>
       <c r="G5" s="0">
-        <v>0</v>
+        <v>0.87260621587838472</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO5" s="0">
         <v>0</v>
@@ -1167,19 +1167,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>1</v>
+        <v>0.79710640515974518</v>
       </c>
       <c r="F6" s="0">
         <v>0</v>
       </c>
       <c r="G6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>1</v>
+        <v>0.98158649439654999</v>
       </c>
       <c r="I6" s="0">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="0">
-        <v>0</v>
+        <v>0.64989154722941667</v>
       </c>
       <c r="Q6" s="0">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="0">
-        <v>0</v>
+        <v>0.60995512277079622</v>
       </c>
       <c r="AC6" s="0">
         <v>0</v>
@@ -1275,7 +1275,7 @@
         <v>0</v>
       </c>
       <c r="AN6" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="0">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         <v>0</v>
       </c>
       <c r="E7" s="0">
-        <v>0</v>
+        <v>0.97918956265191048</v>
       </c>
       <c r="F7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7" s="0">
         <v>0</v>
       </c>
       <c r="H7" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>1</v>
+        <v>0.62097789408537851</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="AV7" s="0">
-        <v>0</v>
+        <v>0.99287935847118991</v>
       </c>
       <c r="AW7" s="0">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="0">
-        <v>0</v>
+        <v>0.71615718347665624</v>
       </c>
       <c r="BM7" s="0">
         <v>0</v>
@@ -1565,12 +1565,12 @@
         <v>0</v>
       </c>
       <c r="BP7" s="0">
-        <v>0</v>
+        <v>0.52056714569488438</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B8" s="0">
         <v>0</v>
@@ -1585,19 +1585,19 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>1</v>
+        <v>0.50285941548500968</v>
       </c>
       <c r="G8" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="0">
         <v>0</v>
       </c>
       <c r="I8" s="0">
-        <v>0</v>
+        <v>0.96272324530105235</v>
       </c>
       <c r="J8" s="0">
-        <v>1</v>
+        <v>0.63294864873697443</v>
       </c>
       <c r="K8" s="0">
         <v>0</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="0">
-        <v>0</v>
+        <v>0.97726033249680166</v>
       </c>
       <c r="O8" s="0">
         <v>0</v>
@@ -1794,19 +1794,19 @@
         <v>0</v>
       </c>
       <c r="G9" s="0">
-        <v>1</v>
+        <v>0.94134327713637567</v>
       </c>
       <c r="H9" s="0">
-        <v>0</v>
+        <v>0.50434657752588641</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>1</v>
+        <v>0.55077593496241772</v>
       </c>
       <c r="K9" s="0">
-        <v>1</v>
+        <v>0.94630246314014732</v>
       </c>
       <c r="L9" s="0">
         <v>0</v>
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>1</v>
+        <v>0.6043576767565817</v>
       </c>
       <c r="I10" s="0">
-        <v>1</v>
+        <v>0.89800964226414459</v>
       </c>
       <c r="J10" s="0">
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0</v>
+        <v>0.56239062500210613</v>
       </c>
       <c r="L10" s="0">
-        <v>1</v>
+        <v>0.84756126584646641</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2057,7 +2057,7 @@
         <v>0</v>
       </c>
       <c r="Z10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA10" s="0">
         <v>0</v>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
       <c r="AU10" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV10" s="0">
         <v>0</v>
@@ -2212,19 +2212,19 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>1</v>
+        <v>0.64709650081661929</v>
       </c>
       <c r="J11" s="0">
-        <v>0</v>
+        <v>0.91495215406785335</v>
       </c>
       <c r="K11" s="0">
         <v>0</v>
       </c>
       <c r="L11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0</v>
+        <v>0.7115631389210455</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="0">
-        <v>0</v>
+        <v>0.68816590484367257</v>
       </c>
       <c r="AF11" s="0">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>0</v>
       </c>
       <c r="AS11" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="0">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="0">
-        <v>0</v>
+        <v>0.50678660542289988</v>
       </c>
       <c r="BF11" s="0">
         <v>0</v>
@@ -2421,19 +2421,19 @@
         <v>0</v>
       </c>
       <c r="J12" s="0">
-        <v>1</v>
+        <v>0.96104681569718831</v>
       </c>
       <c r="K12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L12" s="0">
         <v>0</v>
       </c>
       <c r="M12" s="0">
-        <v>1</v>
+        <v>0.88169052953296534</v>
       </c>
       <c r="N12" s="0">
-        <v>1</v>
+        <v>0.76963685644463609</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2556,7 +2556,7 @@
         <v>0</v>
       </c>
       <c r="BC12" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="0">
         <v>0</v>
@@ -2577,7 +2577,7 @@
         <v>0</v>
       </c>
       <c r="BJ12" s="0">
-        <v>0</v>
+        <v>0.68114749142279551</v>
       </c>
       <c r="BK12" s="0">
         <v>0</v>
@@ -2630,19 +2630,19 @@
         <v>0</v>
       </c>
       <c r="K13" s="0">
-        <v>0</v>
+        <v>0.85901920132283882</v>
       </c>
       <c r="L13" s="0">
-        <v>1</v>
+        <v>0.52098698452917991</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
       </c>
       <c r="N13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0</v>
+        <v>0.689414767133115</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>0</v>
+        <v>0.84111710114111837</v>
       </c>
       <c r="Z13" s="0">
         <v>0</v>
@@ -2690,7 +2690,7 @@
         <v>0</v>
       </c>
       <c r="AE13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" s="0">
         <v>0</v>
@@ -2699,7 +2699,7 @@
         <v>0</v>
       </c>
       <c r="AH13" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI13" s="0">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0</v>
+        <v>0.70155200185959021</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -2839,19 +2839,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="0">
-        <v>1</v>
+        <v>0.86296876152739588</v>
       </c>
       <c r="M14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0">
         <v>0</v>
       </c>
       <c r="O14" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P14" s="0">
-        <v>1</v>
+        <v>0.74402968981339856</v>
       </c>
       <c r="Q14" s="0">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="0">
-        <v>0</v>
+        <v>0.56342622394643627</v>
       </c>
       <c r="AD14" s="0">
         <v>0</v>
@@ -3048,19 +3048,19 @@
         <v>0</v>
       </c>
       <c r="M15" s="0">
-        <v>0</v>
+        <v>0.82814304942099048</v>
       </c>
       <c r="N15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15" s="0">
         <v>0</v>
       </c>
       <c r="P15" s="0">
-        <v>1</v>
+        <v>0.79369620009769182</v>
       </c>
       <c r="Q15" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R15" s="0">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="AH15" s="0">
-        <v>0</v>
+        <v>0.63197991556257582</v>
       </c>
       <c r="AI15" s="0">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="0">
-        <v>0</v>
+        <v>0.63215375755561032</v>
       </c>
       <c r="G16" s="0">
         <v>0</v>
@@ -3257,19 +3257,19 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>1</v>
+        <v>0.74250018271817364</v>
       </c>
       <c r="O16" s="0">
-        <v>1</v>
+        <v>0.61232562674242441</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
       </c>
       <c r="Q16" s="0">
-        <v>0</v>
+        <v>0.82213349621560083</v>
       </c>
       <c r="R16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S16" s="0">
         <v>0</v>
@@ -3347,7 +3347,7 @@
         <v>0</v>
       </c>
       <c r="AR16" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS16" s="0">
         <v>0</v>
@@ -3466,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0</v>
+        <v>0.51409606953975051</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>1</v>
+        <v>0.59881714841062061</v>
       </c>
       <c r="S17" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="0">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="0">
-        <v>0</v>
+        <v>0.63800253314706801</v>
       </c>
       <c r="AM17" s="0">
         <v>0</v>
@@ -3675,19 +3675,19 @@
         <v>0</v>
       </c>
       <c r="P18" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="0">
-        <v>1</v>
+        <v>0.99656010715271404</v>
       </c>
       <c r="R18" s="0">
         <v>0</v>
       </c>
       <c r="S18" s="0">
-        <v>1</v>
+        <v>0.80105997657266492</v>
       </c>
       <c r="T18" s="0">
-        <v>1</v>
+        <v>0.65567510516756122</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3884,19 +3884,19 @@
         <v>0</v>
       </c>
       <c r="Q19" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>1</v>
+        <v>0.58285668994512285</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
       </c>
       <c r="T19" s="0">
-        <v>1</v>
+        <v>0.97492634520640165</v>
       </c>
       <c r="U19" s="0">
-        <v>1</v>
+        <v>0.97362429680847473</v>
       </c>
       <c r="V19" s="0">
         <v>0</v>
@@ -4093,19 +4093,19 @@
         <v>0</v>
       </c>
       <c r="R20" s="0">
-        <v>1</v>
+        <v>0.8187728058227004</v>
       </c>
       <c r="S20" s="0">
-        <v>1</v>
+        <v>0.85931985485788664</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0</v>
+        <v>0.6577280076632388</v>
       </c>
       <c r="V20" s="0">
-        <v>1</v>
+        <v>0.76494206892772287</v>
       </c>
       <c r="W20" s="0">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="AH20" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI20" s="0">
         <v>0</v>
@@ -4302,19 +4302,19 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>1</v>
+        <v>0.61048320100677655</v>
       </c>
       <c r="T21" s="0">
-        <v>0</v>
+        <v>0.8010201253675322</v>
       </c>
       <c r="U21" s="0">
         <v>0</v>
       </c>
       <c r="V21" s="0">
-        <v>0</v>
+        <v>0.88369903975777819</v>
       </c>
       <c r="W21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X21" s="0">
         <v>0</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="0">
-        <v>0</v>
+        <v>0.63123114158788707</v>
       </c>
       <c r="AG21" s="0">
         <v>0</v>
@@ -4374,13 +4374,13 @@
         <v>0</v>
       </c>
       <c r="AQ21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR21" s="0">
         <v>0</v>
       </c>
       <c r="AS21" s="0">
-        <v>0</v>
+        <v>0.52493238822668742</v>
       </c>
       <c r="AT21" s="0">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>0</v>
       </c>
       <c r="BB21" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC21" s="0">
         <v>0</v>
@@ -4511,19 +4511,19 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>1</v>
+        <v>0.52558908601317988</v>
       </c>
       <c r="U22" s="0">
-        <v>0</v>
+        <v>0.6798650178203296</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
       </c>
       <c r="W22" s="0">
-        <v>1</v>
+        <v>0.94639978594477592</v>
       </c>
       <c r="X22" s="0">
-        <v>1</v>
+        <v>0.61800714457940076</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4720,19 +4720,19 @@
         <v>0</v>
       </c>
       <c r="U23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>1</v>
+        <v>0.59647767715959477</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
       </c>
       <c r="X23" s="0">
-        <v>1</v>
+        <v>0.91713000562341063</v>
       </c>
       <c r="Y23" s="0">
-        <v>1</v>
+        <v>0.82001590668299917</v>
       </c>
       <c r="Z23" s="0">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="AR23" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS23" s="0">
         <v>0</v>
@@ -4929,16 +4929,16 @@
         <v>0</v>
       </c>
       <c r="V24" s="0">
-        <v>1</v>
+        <v>0.82024233591779039</v>
       </c>
       <c r="W24" s="0">
-        <v>1</v>
+        <v>0.83352332728281209</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
       </c>
       <c r="Y24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="0">
         <v>0</v>
@@ -4995,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="AR24" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AS24" s="0">
         <v>0</v>
@@ -5007,7 +5007,7 @@
         <v>0</v>
       </c>
       <c r="AV24" s="0">
-        <v>0</v>
+        <v>0.67479280735778957</v>
       </c>
       <c r="AW24" s="0">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>0</v>
+        <v>0.65601427621197606</v>
       </c>
       <c r="BH24" s="0">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="0">
-        <v>0</v>
+        <v>0.93546283476005465</v>
       </c>
       <c r="N25" s="0">
         <v>0</v>
@@ -5138,19 +5138,19 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>1</v>
+        <v>0.7731160410731297</v>
       </c>
       <c r="X25" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="0">
         <v>0</v>
       </c>
       <c r="Z25" s="0">
-        <v>1</v>
+        <v>0.97757115744987533</v>
       </c>
       <c r="AA25" s="0">
-        <v>1</v>
+        <v>0.87869648136617817</v>
       </c>
       <c r="AB25" s="0">
         <v>0</v>
@@ -5189,7 +5189,7 @@
         <v>0</v>
       </c>
       <c r="AN25" s="0">
-        <v>0</v>
+        <v>0.9468513923818529</v>
       </c>
       <c r="AO25" s="0">
         <v>0</v>
@@ -5305,7 +5305,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="0">
         <v>0</v>
@@ -5350,16 +5350,16 @@
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>1</v>
+        <v>0.76277417799284497</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
       </c>
       <c r="AA26" s="0">
-        <v>1</v>
+        <v>0.92054388176400692</v>
       </c>
       <c r="AB26" s="0">
-        <v>1</v>
+        <v>0.809336152085259</v>
       </c>
       <c r="AC26" s="0">
         <v>0</v>
@@ -5371,7 +5371,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="0">
-        <v>0</v>
+        <v>0.86565459448331172</v>
       </c>
       <c r="AG26" s="0">
         <v>0</v>
@@ -5416,7 +5416,7 @@
         <v>0</v>
       </c>
       <c r="AU26" s="0">
-        <v>0</v>
+        <v>0.73444551267948377</v>
       </c>
       <c r="AV26" s="0">
         <v>0</v>
@@ -5556,22 +5556,22 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>1</v>
+        <v>0.8699702192202412</v>
       </c>
       <c r="Z27" s="0">
-        <v>1</v>
+        <v>0.52950951154704562</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
       </c>
       <c r="AB27" s="0">
-        <v>1</v>
+        <v>0.61539579162460534</v>
       </c>
       <c r="AC27" s="0">
-        <v>0</v>
+        <v>0.93072013929115671</v>
       </c>
       <c r="AD27" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" s="0">
         <v>0</v>
@@ -5601,7 +5601,7 @@
         <v>0</v>
       </c>
       <c r="AN27" s="0">
-        <v>1</v>
+        <v>0.92175908770683612</v>
       </c>
       <c r="AO27" s="0">
         <v>0</v>
@@ -5705,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="0">
-        <v>0</v>
+        <v>0.7716412865800566</v>
       </c>
       <c r="G28" s="0">
         <v>0</v>
@@ -5765,19 +5765,19 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>1</v>
+        <v>0.54797104815659559</v>
       </c>
       <c r="AA28" s="0">
-        <v>1</v>
+        <v>0.57803381947746302</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
       </c>
       <c r="AC28" s="0">
-        <v>1</v>
+        <v>0.99468173845968122</v>
       </c>
       <c r="AD28" s="0">
-        <v>1</v>
+        <v>0.98940268609875059</v>
       </c>
       <c r="AE28" s="0">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="N29" s="0">
-        <v>0</v>
+        <v>0.78476570497455356</v>
       </c>
       <c r="O29" s="0">
         <v>0</v>
@@ -5974,19 +5974,19 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0</v>
+        <v>0.81090982357947206</v>
       </c>
       <c r="AB29" s="0">
-        <v>1</v>
+        <v>0.54998057727735172</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
       </c>
       <c r="AD29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF29" s="0">
         <v>0</v>
@@ -6001,13 +6001,13 @@
         <v>0</v>
       </c>
       <c r="AJ29" s="0">
-        <v>0</v>
+        <v>0.96544774658021881</v>
       </c>
       <c r="AK29" s="0">
         <v>0</v>
       </c>
       <c r="AL29" s="0">
-        <v>0</v>
+        <v>0.97055840625492129</v>
       </c>
       <c r="AM29" s="0">
         <v>0</v>
@@ -6180,22 +6180,22 @@
         <v>0</v>
       </c>
       <c r="AA30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>1</v>
+        <v>0.51093867241790303</v>
       </c>
       <c r="AC30" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD30" s="0">
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0</v>
+        <v>0.51902922501014637</v>
       </c>
       <c r="AF30" s="0">
-        <v>1</v>
+        <v>0.61159258265448613</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6338,13 +6338,13 @@
         <v>0</v>
       </c>
       <c r="K31" s="0">
-        <v>0</v>
+        <v>0.94229862725191671</v>
       </c>
       <c r="L31" s="0">
         <v>0</v>
       </c>
       <c r="M31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="0">
         <v>0</v>
@@ -6392,19 +6392,19 @@
         <v>0</v>
       </c>
       <c r="AC31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31" s="0">
-        <v>0</v>
+        <v>0.55482914298375763</v>
       </c>
       <c r="AE31" s="0">
         <v>0</v>
       </c>
       <c r="AF31" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="0">
-        <v>0</v>
+        <v>0.90619168977617837</v>
       </c>
       <c r="AH31" s="0">
         <v>0</v>
@@ -6500,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="BM31" s="0">
-        <v>0</v>
+        <v>0.89832509211338518</v>
       </c>
       <c r="BN31" s="0">
         <v>0</v>
@@ -6574,7 +6574,7 @@
         <v>0</v>
       </c>
       <c r="U32" s="0">
-        <v>0</v>
+        <v>0.98059398845780632</v>
       </c>
       <c r="V32" s="0">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="0">
-        <v>0</v>
+        <v>0.66979434420095674</v>
       </c>
       <c r="AA32" s="0">
         <v>0</v>
@@ -6601,19 +6601,19 @@
         <v>0</v>
       </c>
       <c r="AD32" s="0">
-        <v>1</v>
+        <v>0.8177024799586301</v>
       </c>
       <c r="AE32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF32" s="0">
         <v>0</v>
       </c>
       <c r="AG32" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="0">
-        <v>1</v>
+        <v>0.97121115889974852</v>
       </c>
       <c r="AI32" s="0">
         <v>0</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="BF32" s="0">
-        <v>0</v>
+        <v>0.55228342666097618</v>
       </c>
       <c r="BG32" s="0">
         <v>0</v>
@@ -6810,19 +6810,19 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0</v>
+        <v>0.51432201665482158</v>
       </c>
       <c r="AF33" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="0">
         <v>0</v>
       </c>
       <c r="AH33" s="0">
-        <v>1</v>
+        <v>0.89750841222734257</v>
       </c>
       <c r="AI33" s="0">
-        <v>1</v>
+        <v>0.56191037077778716</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -6962,13 +6962,13 @@
         <v>0</v>
       </c>
       <c r="M34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="0">
         <v>0</v>
       </c>
       <c r="O34" s="0">
-        <v>0</v>
+        <v>0.89931760816474848</v>
       </c>
       <c r="P34" s="0">
         <v>0</v>
@@ -6983,7 +6983,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U34" s="0">
         <v>0</v>
@@ -7019,19 +7019,19 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>1</v>
+        <v>0.83365310903044221</v>
       </c>
       <c r="AG34" s="0">
-        <v>1</v>
+        <v>0.7791120825628769</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
       </c>
       <c r="AI34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="0">
-        <v>1</v>
+        <v>0.92231762534292283</v>
       </c>
       <c r="AK34" s="0">
         <v>0</v>
@@ -7046,7 +7046,7 @@
         <v>0</v>
       </c>
       <c r="AO34" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="0">
         <v>0</v>
@@ -7109,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="BJ34" s="0">
-        <v>0</v>
+        <v>0.92752872197023539</v>
       </c>
       <c r="BK34" s="0">
         <v>0</v>
@@ -7228,19 +7228,19 @@
         <v>0</v>
       </c>
       <c r="AG35" s="0">
-        <v>1</v>
+        <v>0.70357066747376207</v>
       </c>
       <c r="AH35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="0">
         <v>0</v>
       </c>
       <c r="AJ35" s="0">
-        <v>1</v>
+        <v>0.61731273235003936</v>
       </c>
       <c r="AK35" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL35" s="0">
         <v>0</v>
@@ -7258,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="AQ35" s="0">
-        <v>0</v>
+        <v>0.93675338028019617</v>
       </c>
       <c r="AR35" s="0">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="0">
-        <v>0</v>
+        <v>0.62058074410090036</v>
       </c>
       <c r="AD36" s="0">
         <v>0</v>
@@ -7437,19 +7437,19 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>1</v>
+        <v>0.78355193922727207</v>
       </c>
       <c r="AI36" s="0">
-        <v>1</v>
+        <v>0.58870133965651439</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
       </c>
       <c r="AK36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AL36" s="0">
-        <v>1</v>
+        <v>0.82748773466445424</v>
       </c>
       <c r="AM36" s="0">
         <v>0</v>
@@ -7503,7 +7503,7 @@
         <v>0</v>
       </c>
       <c r="BD36" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE36" s="0">
         <v>0</v>
@@ -7646,19 +7646,19 @@
         <v>0</v>
       </c>
       <c r="AI37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ37" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK37" s="0">
         <v>0</v>
       </c>
       <c r="AL37" s="0">
-        <v>1</v>
+        <v>0.93628613457163667</v>
       </c>
       <c r="AM37" s="0">
-        <v>1</v>
+        <v>0.80347144451506503</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7798,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="0">
-        <v>0</v>
+        <v>0.79801151904710532</v>
       </c>
       <c r="R38" s="0">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>0</v>
+        <v>0.91480268433615231</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -7855,19 +7855,19 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>1</v>
+        <v>0.5934045536399345</v>
       </c>
       <c r="AK38" s="0">
-        <v>1</v>
+        <v>0.52615267859394588</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
       </c>
       <c r="AM38" s="0">
-        <v>1</v>
+        <v>0.91250236288909969</v>
       </c>
       <c r="AN38" s="0">
-        <v>1</v>
+        <v>0.62840475633037207</v>
       </c>
       <c r="AO38" s="0">
         <v>0</v>
@@ -8064,19 +8064,19 @@
         <v>0</v>
       </c>
       <c r="AK39" s="0">
-        <v>1</v>
+        <v>0.86414242385552975</v>
       </c>
       <c r="AL39" s="0">
-        <v>1</v>
+        <v>0.78619265923486181</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
       </c>
       <c r="AN39" s="0">
-        <v>0</v>
+        <v>0.92684240227354775</v>
       </c>
       <c r="AO39" s="0">
-        <v>1</v>
+        <v>0.98615671880559419</v>
       </c>
       <c r="AP39" s="0">
         <v>0</v>
@@ -8091,7 +8091,7 @@
         <v>0</v>
       </c>
       <c r="AT39" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU39" s="0">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="AW39" s="0">
-        <v>0</v>
+        <v>0.77686206426024051</v>
       </c>
       <c r="AX39" s="0">
         <v>0</v>
@@ -8177,7 +8177,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" s="0">
         <v>0</v>
@@ -8234,13 +8234,13 @@
         <v>0</v>
       </c>
       <c r="Y40" s="0">
-        <v>0</v>
+        <v>0.938353437899067</v>
       </c>
       <c r="Z40" s="0">
         <v>0</v>
       </c>
       <c r="AA40" s="0">
-        <v>1</v>
+        <v>0.89556688887331148</v>
       </c>
       <c r="AB40" s="0">
         <v>0</v>
@@ -8273,10 +8273,10 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>1</v>
+        <v>0.53637385372062119</v>
       </c>
       <c r="AM40" s="0">
-        <v>0</v>
+        <v>0.78262242801412429</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8285,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AQ40" s="0">
         <v>0</v>
@@ -8467,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="AH41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI41" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>1</v>
+        <v>0.90091731066364111</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8491,10 +8491,10 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>1</v>
+        <v>0.742222812515416</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0</v>
+        <v>0.77511742929017879</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8563,7 +8563,7 @@
         <v>0</v>
       </c>
       <c r="BN41" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO41" s="0">
         <v>0</v>
@@ -8577,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="B42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C42" s="0">
         <v>0</v>
@@ -8691,19 +8691,19 @@
         <v>0</v>
       </c>
       <c r="AN42" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO42" s="0">
-        <v>1</v>
+        <v>0.90076068442186807</v>
       </c>
       <c r="AP42" s="0">
         <v>0</v>
       </c>
       <c r="AQ42" s="0">
-        <v>1</v>
+        <v>0.66286360016570955</v>
       </c>
       <c r="AR42" s="0">
-        <v>1</v>
+        <v>0.7264733862682875</v>
       </c>
       <c r="AS42" s="0">
         <v>0</v>
@@ -8780,7 +8780,7 @@
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0</v>
+        <v>0.71403170592694076</v>
       </c>
       <c r="B43" s="0">
         <v>0</v>
@@ -8840,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="U43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V43" s="0">
         <v>0</v>
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="AI43" s="0">
-        <v>0</v>
+        <v>0.51771171822724327</v>
       </c>
       <c r="AJ43" s="0">
         <v>0</v>
@@ -8900,19 +8900,19 @@
         <v>0</v>
       </c>
       <c r="AO43" s="0">
-        <v>0</v>
+        <v>0.97428434997633029</v>
       </c>
       <c r="AP43" s="0">
-        <v>1</v>
+        <v>0.65469057676724129</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
       </c>
       <c r="AR43" s="0">
-        <v>0</v>
+        <v>0.85438752556072373</v>
       </c>
       <c r="AS43" s="0">
-        <v>1</v>
+        <v>0.84890034874065334</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -8981,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="BP43" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -9031,7 +9031,7 @@
         <v>0</v>
       </c>
       <c r="P44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" s="0">
         <v>0</v>
@@ -9052,10 +9052,10 @@
         <v>0</v>
       </c>
       <c r="W44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X44" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y44" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>1</v>
+        <v>0.58825124897053671</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0</v>
+        <v>0.83991498065518644</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>1</v>
+        <v>0.58211931208387147</v>
       </c>
       <c r="AT44" s="0">
-        <v>0</v>
+        <v>0.51917527349580406</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="K45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L45" s="0">
         <v>0</v>
@@ -9252,7 +9252,7 @@
         <v>0</v>
       </c>
       <c r="U45" s="0">
-        <v>0</v>
+        <v>0.92209655288556469</v>
       </c>
       <c r="V45" s="0">
         <v>0</v>
@@ -9318,19 +9318,19 @@
         <v>0</v>
       </c>
       <c r="AQ45" s="0">
-        <v>1</v>
+        <v>0.87240994951815143</v>
       </c>
       <c r="AR45" s="0">
-        <v>1</v>
+        <v>0.58421234517551501</v>
       </c>
       <c r="AS45" s="0">
         <v>0</v>
       </c>
       <c r="AT45" s="0">
-        <v>1</v>
+        <v>0.7670561656493512</v>
       </c>
       <c r="AU45" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV45" s="0">
         <v>0</v>
@@ -9342,10 +9342,10 @@
         <v>0</v>
       </c>
       <c r="AY45" s="0">
-        <v>0</v>
+        <v>0.64001066125268335</v>
       </c>
       <c r="AZ45" s="0">
-        <v>0</v>
+        <v>0.98866599095255769</v>
       </c>
       <c r="BA45" s="0">
         <v>0</v>
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="AM46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AN46" s="0">
         <v>0</v>
@@ -9527,19 +9527,19 @@
         <v>0</v>
       </c>
       <c r="AR46" s="0">
-        <v>0</v>
+        <v>0.85683983638162908</v>
       </c>
       <c r="AS46" s="0">
-        <v>1</v>
+        <v>0.50192157373617796</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
       </c>
       <c r="AU46" s="0">
-        <v>0</v>
+        <v>0.84336875616624818</v>
       </c>
       <c r="AV46" s="0">
-        <v>1</v>
+        <v>0.59638526821404281</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9575,7 +9575,7 @@
         <v>0</v>
       </c>
       <c r="BH46" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BI46" s="0">
         <v>0</v>
@@ -9631,7 +9631,7 @@
         <v>0</v>
       </c>
       <c r="J47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K47" s="0">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="0">
-        <v>0</v>
+        <v>0.59870432381018857</v>
       </c>
       <c r="AA47" s="0">
         <v>0</v>
@@ -9736,19 +9736,19 @@
         <v>0</v>
       </c>
       <c r="AS47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0</v>
+        <v>0.61494268663992757</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
       </c>
       <c r="AV47" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0</v>
+        <v>0.73319224348355405</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="0">
-        <v>0</v>
+        <v>0.8663955830512543</v>
       </c>
       <c r="H48" s="0">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>0</v>
+        <v>0.62162477350403722</v>
       </c>
       <c r="Y48" s="0">
         <v>0</v>
@@ -9945,19 +9945,19 @@
         <v>0</v>
       </c>
       <c r="AT48" s="0">
-        <v>1</v>
+        <v>0.65321689236016423</v>
       </c>
       <c r="AU48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AV48" s="0">
         <v>0</v>
       </c>
       <c r="AW48" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX48" s="0">
-        <v>1</v>
+        <v>0.74642678876582347</v>
       </c>
       <c r="AY48" s="0">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>0</v>
       </c>
       <c r="AM49" s="0">
-        <v>0</v>
+        <v>0.91340391967738133</v>
       </c>
       <c r="AN49" s="0">
         <v>0</v>
@@ -10154,19 +10154,19 @@
         <v>0</v>
       </c>
       <c r="AU49" s="0">
-        <v>0</v>
+        <v>0.92791653527144102</v>
       </c>
       <c r="AV49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW49" s="0">
         <v>0</v>
       </c>
       <c r="AX49" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>1</v>
+        <v>0.53538040571859236</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10363,19 +10363,19 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>1</v>
+        <v>0.555095258250631</v>
       </c>
       <c r="AW50" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX50" s="0">
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>1</v>
+        <v>0.57090403889448771</v>
       </c>
       <c r="AZ50" s="0">
-        <v>1</v>
+        <v>0.96311554673882016</v>
       </c>
       <c r="BA50" s="0">
         <v>0</v>
@@ -10560,7 +10560,7 @@
         <v>0</v>
       </c>
       <c r="AS51" s="0">
-        <v>0</v>
+        <v>0.99841892731765824</v>
       </c>
       <c r="AT51" s="0">
         <v>0</v>
@@ -10572,19 +10572,19 @@
         <v>0</v>
       </c>
       <c r="AW51" s="0">
-        <v>1</v>
+        <v>0.98131681620891342</v>
       </c>
       <c r="AX51" s="0">
-        <v>1</v>
+        <v>0.63166854372836334</v>
       </c>
       <c r="AY51" s="0">
         <v>0</v>
       </c>
       <c r="AZ51" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA51" s="0">
-        <v>1</v>
+        <v>0.87604536631793684</v>
       </c>
       <c r="BB51" s="0">
         <v>0</v>
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="0">
-        <v>0</v>
+        <v>0.92394353492150116</v>
       </c>
       <c r="AT52" s="0">
         <v>0</v>
@@ -10781,19 +10781,19 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>1</v>
+        <v>0.67270300988968779</v>
       </c>
       <c r="AY52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AZ52" s="0">
         <v>0</v>
       </c>
       <c r="BA52" s="0">
-        <v>1</v>
+        <v>0.97508311771472977</v>
       </c>
       <c r="BB52" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC52" s="0">
         <v>0</v>
@@ -10990,19 +10990,19 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>1</v>
+        <v>0.83074681981193343</v>
       </c>
       <c r="AZ53" s="0">
-        <v>1</v>
+        <v>0.85452600599191053</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
       </c>
       <c r="BB53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC53" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD53" s="0">
         <v>0</v>
@@ -11014,7 +11014,7 @@
         <v>0</v>
       </c>
       <c r="BG53" s="0">
-        <v>0</v>
+        <v>0.99809032821890087</v>
       </c>
       <c r="BH53" s="0">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="BM53" s="0">
-        <v>0</v>
+        <v>0.75148564518162986</v>
       </c>
       <c r="BN53" s="0">
         <v>0</v>
@@ -11106,7 +11106,7 @@
         <v>0</v>
       </c>
       <c r="U54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V54" s="0">
         <v>0</v>
@@ -11199,19 +11199,19 @@
         <v>0</v>
       </c>
       <c r="AZ54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB54" s="0">
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>1</v>
+        <v>0.55357923649400176</v>
       </c>
       <c r="BD54" s="0">
-        <v>0</v>
+        <v>0.83633385883594036</v>
       </c>
       <c r="BE54" s="0">
         <v>0</v>
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="BL54" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM54" s="0">
         <v>0</v>
@@ -11285,7 +11285,7 @@
         <v>0</v>
       </c>
       <c r="L55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" s="0">
         <v>0</v>
@@ -11408,19 +11408,19 @@
         <v>0</v>
       </c>
       <c r="BA55" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB55" s="0">
-        <v>1</v>
+        <v>0.84899549577922795</v>
       </c>
       <c r="BC55" s="0">
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>1</v>
+        <v>0.75356295960111175</v>
       </c>
       <c r="BE55" s="0">
-        <v>0</v>
+        <v>0.82800525038914463</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="BP55" s="0">
-        <v>0</v>
+        <v>0.8417949359619461</v>
       </c>
     </row>
     <row r="56">
@@ -11563,7 +11563,7 @@
         <v>0</v>
       </c>
       <c r="AJ56" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK56" s="0">
         <v>0</v>
@@ -11617,19 +11617,19 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0</v>
+        <v>0.76052036909194509</v>
       </c>
       <c r="BC56" s="0">
-        <v>1</v>
+        <v>0.90734968146235473</v>
       </c>
       <c r="BD56" s="0">
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0</v>
+        <v>0.77168400336996301</v>
       </c>
       <c r="BF56" s="0">
-        <v>1</v>
+        <v>0.59811528836863381</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="0">
-        <v>0</v>
+        <v>0.87145845806477851</v>
       </c>
       <c r="L57" s="0">
         <v>0</v>
@@ -11826,19 +11826,19 @@
         <v>0</v>
       </c>
       <c r="BC57" s="0">
-        <v>0</v>
+        <v>0.91074741798569447</v>
       </c>
       <c r="BD57" s="0">
-        <v>0</v>
+        <v>0.91129212539136262</v>
       </c>
       <c r="BE57" s="0">
         <v>0</v>
       </c>
       <c r="BF57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG57" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH57" s="0">
         <v>0</v>
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="BJ57" s="0">
-        <v>0</v>
+        <v>0.76122631001972918</v>
       </c>
       <c r="BK57" s="0">
         <v>0</v>
@@ -11963,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="AF58" s="0">
-        <v>0</v>
+        <v>0.93353494721574592</v>
       </c>
       <c r="AG58" s="0">
         <v>0</v>
@@ -12035,19 +12035,19 @@
         <v>0</v>
       </c>
       <c r="BD58" s="0">
-        <v>1</v>
+        <v>0.96571211321581374</v>
       </c>
       <c r="BE58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF58" s="0">
         <v>0</v>
       </c>
       <c r="BG58" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>1</v>
+        <v>0.56006244607315037</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12145,7 +12145,7 @@
         <v>0</v>
       </c>
       <c r="X59" s="0">
-        <v>0</v>
+        <v>0.69564465455974966</v>
       </c>
       <c r="Y59" s="0">
         <v>0</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="BA59" s="0">
-        <v>0</v>
+        <v>0.84987066517625864</v>
       </c>
       <c r="BB59" s="0">
         <v>0</v>
@@ -12244,19 +12244,19 @@
         <v>0</v>
       </c>
       <c r="BE59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BF59" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BG59" s="0">
         <v>0</v>
       </c>
       <c r="BH59" s="0">
-        <v>1</v>
+        <v>0.98526481623615703</v>
       </c>
       <c r="BI59" s="0">
-        <v>1</v>
+        <v>0.60958971723837851</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12417,7 +12417,7 @@
         <v>0</v>
       </c>
       <c r="AT60" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU60" s="0">
         <v>0</v>
@@ -12453,19 +12453,19 @@
         <v>0</v>
       </c>
       <c r="BF60" s="0">
-        <v>1</v>
+        <v>0.79073977968261799</v>
       </c>
       <c r="BG60" s="0">
-        <v>1</v>
+        <v>0.60911199820660267</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>1</v>
+        <v>0.64104829259306506</v>
       </c>
       <c r="BJ60" s="0">
-        <v>1</v>
+        <v>0.96582138677041418</v>
       </c>
       <c r="BK60" s="0">
         <v>0</v>
@@ -12662,19 +12662,19 @@
         <v>0</v>
       </c>
       <c r="BG61" s="0">
-        <v>1</v>
+        <v>0.67249957114915637</v>
       </c>
       <c r="BH61" s="0">
-        <v>1</v>
+        <v>0.67100643651922942</v>
       </c>
       <c r="BI61" s="0">
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>1</v>
+        <v>0.50622557990197425</v>
       </c>
       <c r="BK61" s="0">
-        <v>1</v>
+        <v>0.60121123649746733</v>
       </c>
       <c r="BL61" s="0">
         <v>0</v>
@@ -12727,7 +12727,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="0">
-        <v>0</v>
+        <v>0.61692912502034614</v>
       </c>
       <c r="M62" s="0">
         <v>0</v>
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="AH62" s="0">
-        <v>0</v>
+        <v>0.74329513773580747</v>
       </c>
       <c r="AI62" s="0">
         <v>0</v>
@@ -12862,7 +12862,7 @@
         <v>0</v>
       </c>
       <c r="BE62" s="0">
-        <v>0</v>
+        <v>0.9258377414690534</v>
       </c>
       <c r="BF62" s="0">
         <v>0</v>
@@ -12871,19 +12871,19 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>1</v>
+        <v>0.90932490769024632</v>
       </c>
       <c r="BI62" s="0">
-        <v>1</v>
+        <v>0.51241644686344179</v>
       </c>
       <c r="BJ62" s="0">
         <v>0</v>
       </c>
       <c r="BK62" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>1</v>
+        <v>0.74027564366981224</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13080,19 +13080,19 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>1</v>
+        <v>0.51153119114157053</v>
       </c>
       <c r="BJ63" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK63" s="0">
         <v>0</v>
       </c>
       <c r="BL63" s="0">
-        <v>1</v>
+        <v>0.85706621768748259</v>
       </c>
       <c r="BM63" s="0">
-        <v>1</v>
+        <v>0.71609554377987727</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13106,7 +13106,7 @@
     </row>
     <row r="64">
       <c r="A64" s="0">
-        <v>0</v>
+        <v>0.97720942995708926</v>
       </c>
       <c r="B64" s="0">
         <v>0</v>
@@ -13124,7 +13124,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="0">
-        <v>0</v>
+        <v>0.7657603063751135</v>
       </c>
       <c r="H64" s="0">
         <v>0</v>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="BB64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BC64" s="0">
         <v>0</v>
@@ -13289,19 +13289,19 @@
         <v>0</v>
       </c>
       <c r="BJ64" s="0">
-        <v>1</v>
+        <v>0.85853818189086528</v>
       </c>
       <c r="BK64" s="0">
-        <v>1</v>
+        <v>0.85568228404422042</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
       </c>
       <c r="BM64" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>1</v>
+        <v>0.53226217107878804</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="0">
-        <v>0</v>
+        <v>0.67772492360844327</v>
       </c>
       <c r="AF65" s="0">
         <v>0</v>
@@ -13468,7 +13468,7 @@
         <v>0</v>
       </c>
       <c r="BA65" s="0">
-        <v>0</v>
+        <v>0.92657937928518708</v>
       </c>
       <c r="BB65" s="0">
         <v>0</v>
@@ -13498,19 +13498,19 @@
         <v>0</v>
       </c>
       <c r="BK65" s="0">
-        <v>1</v>
+        <v>0.93897052273016723</v>
       </c>
       <c r="BL65" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BM65" s="0">
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>1</v>
+        <v>0.60619040501735988</v>
       </c>
       <c r="BO65" s="0">
-        <v>1</v>
+        <v>0.97204627321028858</v>
       </c>
       <c r="BP65" s="0">
         <v>0</v>
@@ -13527,10 +13527,10 @@
         <v>0</v>
       </c>
       <c r="D66" s="0">
-        <v>0</v>
+        <v>0.83095857089805469</v>
       </c>
       <c r="E66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F66" s="0">
         <v>0</v>
@@ -13638,7 +13638,7 @@
         <v>0</v>
       </c>
       <c r="AO66" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AP66" s="0">
         <v>0</v>
@@ -13707,24 +13707,24 @@
         <v>0</v>
       </c>
       <c r="BL66" s="0">
-        <v>1</v>
+        <v>0.97958943298950252</v>
       </c>
       <c r="BM66" s="0">
-        <v>1</v>
+        <v>0.99313793679051532</v>
       </c>
       <c r="BN66" s="0">
         <v>0</v>
       </c>
       <c r="BO66" s="0">
-        <v>1</v>
+        <v>0.69384978768741856</v>
       </c>
       <c r="BP66" s="0">
-        <v>0</v>
+        <v>0.58556581623879422</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>1</v>
+        <v>0.52837215017963102</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13916,21 +13916,21 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>1</v>
+        <v>0.50692495793989001</v>
       </c>
       <c r="BN67" s="0">
-        <v>1</v>
+        <v>0.66963911099367768</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>1</v>
+        <v>0.64594000959049436</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B68" s="0">
         <v>0</v>
@@ -13948,7 +13948,7 @@
         <v>0</v>
       </c>
       <c r="G68" s="0">
-        <v>0</v>
+        <v>0.5384347030897858</v>
       </c>
       <c r="H68" s="0">
         <v>0</v>
@@ -14056,7 +14056,7 @@
         <v>0</v>
       </c>
       <c r="AQ68" s="0">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AR68" s="0">
         <v>0</v>
@@ -14092,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="BC68" s="0">
-        <v>0</v>
+        <v>0.62028528069931199</v>
       </c>
       <c r="BD68" s="0">
         <v>0</v>
@@ -14125,10 +14125,10 @@
         <v>0</v>
       </c>
       <c r="BN68" s="0">
-        <v>0</v>
+        <v>0.63069019655098946</v>
       </c>
       <c r="BO68" s="0">
-        <v>1</v>
+        <v>0.77598657006122185</v>
       </c>
       <c r="BP68" s="0">
         <v>0</v>

--- a/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject47.xlsx
+++ b/braph2genesis/pipelines/connectivity/example data CON (DTI)/xls/GroupName1/subject47.xlsx
@@ -254,7 +254,7 @@
         <v>0</v>
       </c>
       <c r="AQ1" s="0">
-        <v>0.71319126904431929</v>
+        <v>0.71403170592694076</v>
       </c>
       <c r="AR1" s="0">
         <v>0</v>
@@ -317,7 +317,7 @@
         <v>0</v>
       </c>
       <c r="BL1" s="0">
-        <v>0.92928640708498456</v>
+        <v>0.97720942995708926</v>
       </c>
       <c r="BM1" s="0">
         <v>0</v>
@@ -343,7 +343,7 @@
         <v>0.91898594927626343</v>
       </c>
       <c r="D2" s="0">
-        <v>0.61858867582384591</v>
+        <v>0.97651111671114255</v>
       </c>
       <c r="E2" s="0">
         <v>0</v>
@@ -540,10 +540,10 @@
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.98889472464286743</v>
+        <v>0.99380244616658719</v>
       </c>
       <c r="B3" s="0">
-        <v>0.88206490068141097</v>
+        <v>0.91898594927626343</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
@@ -752,7 +752,7 @@
         <v>0.97651111671114255</v>
       </c>
       <c r="C4" s="0">
-        <v>0.86014516534351948</v>
+        <v>0.97159679339031357</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
@@ -941,7 +941,7 @@
         <v>0</v>
       </c>
       <c r="BN4" s="0">
-        <v>0.51758605816698267</v>
+        <v>0.83095857089805469</v>
       </c>
       <c r="BO4" s="0">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="C5" s="0">
-        <v>0.90874913661527779</v>
+        <v>0.99689713480146014</v>
       </c>
       <c r="D5" s="0">
-        <v>0.66447866020094914</v>
+        <v>0.9499643794600221</v>
       </c>
       <c r="E5" s="0">
         <v>0</v>
       </c>
       <c r="F5" s="0">
-        <v>0.6489113536300064</v>
+        <v>0.79710640515974518</v>
       </c>
       <c r="G5" s="0">
-        <v>0.87260621587838472</v>
+        <v>0.97918956265191048</v>
       </c>
       <c r="H5" s="0">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="0">
-        <v>0.60995512277079622</v>
+        <v>0.7716412865800566</v>
       </c>
       <c r="AC6" s="0">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>0.62097789408537851</v>
+        <v>0.94134327713637567</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="BL7" s="0">
-        <v>0.71615718347665624</v>
+        <v>0.7657603063751135</v>
       </c>
       <c r="BM7" s="0">
         <v>0</v>
@@ -1565,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="BP7" s="0">
-        <v>0.52056714569488438</v>
+        <v>0.5384347030897858</v>
       </c>
     </row>
     <row r="8">
@@ -1585,7 +1585,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="0">
-        <v>0.50285941548500968</v>
+        <v>0.98158649439654999</v>
       </c>
       <c r="G8" s="0">
         <v>0</v>
@@ -1797,13 +1797,13 @@
         <v>0.94134327713637567</v>
       </c>
       <c r="H9" s="0">
-        <v>0.50434657752588641</v>
+        <v>0.96272324530105235</v>
       </c>
       <c r="I9" s="0">
         <v>0</v>
       </c>
       <c r="J9" s="0">
-        <v>0.55077593496241772</v>
+        <v>0.89800964226414459</v>
       </c>
       <c r="K9" s="0">
         <v>0.94630246314014732</v>
@@ -2003,7 +2003,7 @@
         <v>0</v>
       </c>
       <c r="H10" s="0">
-        <v>0.6043576767565817</v>
+        <v>0.63294864873697443</v>
       </c>
       <c r="I10" s="0">
         <v>0.89800964226414459</v>
@@ -2012,10 +2012,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="0">
-        <v>0.56239062500210613</v>
+        <v>0.91495215406785335</v>
       </c>
       <c r="L10" s="0">
-        <v>0.84756126584646641</v>
+        <v>0.96104681569718831</v>
       </c>
       <c r="M10" s="0">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="0">
-        <v>0.64709650081661929</v>
+        <v>0.94630246314014732</v>
       </c>
       <c r="J11" s="0">
         <v>0.91495215406785335</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="0">
-        <v>0.7115631389210455</v>
+        <v>0.85901920132283882</v>
       </c>
       <c r="N11" s="0">
         <v>0</v>
@@ -2278,7 +2278,7 @@
         <v>0</v>
       </c>
       <c r="AE11" s="0">
-        <v>0.68816590484367257</v>
+        <v>0.94229862725191671</v>
       </c>
       <c r="AF11" s="0">
         <v>0</v>
@@ -2356,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="BE11" s="0">
-        <v>0.50678660542289988</v>
+        <v>0.87145845806477851</v>
       </c>
       <c r="BF11" s="0">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0.88169052953296534</v>
       </c>
       <c r="N12" s="0">
-        <v>0.76963685644463609</v>
+        <v>0.86296876152739588</v>
       </c>
       <c r="O12" s="0">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>0.85901920132283882</v>
       </c>
       <c r="L13" s="0">
-        <v>0.52098698452917991</v>
+        <v>0.88169052953296534</v>
       </c>
       <c r="M13" s="0">
         <v>0</v>
@@ -2642,7 +2642,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="0">
-        <v>0.689414767133115</v>
+        <v>0.82814304942099048</v>
       </c>
       <c r="P13" s="0">
         <v>0</v>
@@ -2672,7 +2672,7 @@
         <v>0</v>
       </c>
       <c r="Y13" s="0">
-        <v>0.84111710114111837</v>
+        <v>0.93546283476005465</v>
       </c>
       <c r="Z13" s="0">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>0</v>
       </c>
       <c r="H14" s="0">
-        <v>0.70155200185959021</v>
+        <v>0.97726033249680166</v>
       </c>
       <c r="I14" s="0">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="AC14" s="0">
-        <v>0.56342622394643627</v>
+        <v>0.78476570497455356</v>
       </c>
       <c r="AD14" s="0">
         <v>0</v>
@@ -3111,7 +3111,7 @@
         <v>0</v>
       </c>
       <c r="AH15" s="0">
-        <v>0.63197991556257582</v>
+        <v>0.89931760816474848</v>
       </c>
       <c r="AI15" s="0">
         <v>0</v>
@@ -3233,7 +3233,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="0">
-        <v>0.63215375755561032</v>
+        <v>0.64989154722941667</v>
       </c>
       <c r="G16" s="0">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="0">
-        <v>0.74250018271817364</v>
+        <v>0.74402968981339856</v>
       </c>
       <c r="O16" s="0">
-        <v>0.61232562674242441</v>
+        <v>0.79369620009769182</v>
       </c>
       <c r="P16" s="0">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="0">
-        <v>0.51409606953975051</v>
+        <v>0.82213349621560083</v>
       </c>
       <c r="Q17" s="0">
         <v>0</v>
       </c>
       <c r="R17" s="0">
-        <v>0.59881714841062061</v>
+        <v>0.99656010715271404</v>
       </c>
       <c r="S17" s="0">
         <v>0</v>
@@ -3535,7 +3535,7 @@
         <v>0</v>
       </c>
       <c r="AL17" s="0">
-        <v>0.63800253314706801</v>
+        <v>0.79801151904710532</v>
       </c>
       <c r="AM17" s="0">
         <v>0</v>
@@ -3687,7 +3687,7 @@
         <v>0.80105997657266492</v>
       </c>
       <c r="T18" s="0">
-        <v>0.65567510516756122</v>
+        <v>0.8187728058227004</v>
       </c>
       <c r="U18" s="0">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="R19" s="0">
-        <v>0.58285668994512285</v>
+        <v>0.80105997657266492</v>
       </c>
       <c r="S19" s="0">
         <v>0</v>
@@ -4096,13 +4096,13 @@
         <v>0.8187728058227004</v>
       </c>
       <c r="S20" s="0">
-        <v>0.85931985485788664</v>
+        <v>0.97492634520640165</v>
       </c>
       <c r="T20" s="0">
         <v>0</v>
       </c>
       <c r="U20" s="0">
-        <v>0.6577280076632388</v>
+        <v>0.8010201253675322</v>
       </c>
       <c r="V20" s="0">
         <v>0.76494206892772287</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="S21" s="0">
-        <v>0.61048320100677655</v>
+        <v>0.97362429680847473</v>
       </c>
       <c r="T21" s="0">
         <v>0.8010201253675322</v>
@@ -4341,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="0">
-        <v>0.63123114158788707</v>
+        <v>0.98059398845780632</v>
       </c>
       <c r="AG21" s="0">
         <v>0</v>
@@ -4380,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="AS21" s="0">
-        <v>0.52493238822668742</v>
+        <v>0.92209655288556469</v>
       </c>
       <c r="AT21" s="0">
         <v>0</v>
@@ -4511,10 +4511,10 @@
         <v>0</v>
       </c>
       <c r="T22" s="0">
-        <v>0.52558908601317988</v>
+        <v>0.76494206892772287</v>
       </c>
       <c r="U22" s="0">
-        <v>0.6798650178203296</v>
+        <v>0.88369903975777819</v>
       </c>
       <c r="V22" s="0">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>0.94639978594477592</v>
       </c>
       <c r="X22" s="0">
-        <v>0.61800714457940076</v>
+        <v>0.82024233591779039</v>
       </c>
       <c r="Y22" s="0">
         <v>0</v>
@@ -4723,7 +4723,7 @@
         <v>0</v>
       </c>
       <c r="V23" s="0">
-        <v>0.59647767715959477</v>
+        <v>0.94639978594477592</v>
       </c>
       <c r="W23" s="0">
         <v>0</v>
@@ -4932,7 +4932,7 @@
         <v>0.82024233591779039</v>
       </c>
       <c r="W24" s="0">
-        <v>0.83352332728281209</v>
+        <v>0.91713000562341063</v>
       </c>
       <c r="X24" s="0">
         <v>0</v>
@@ -5040,7 +5040,7 @@
         <v>0</v>
       </c>
       <c r="BG24" s="0">
-        <v>0.65601427621197606</v>
+        <v>0.69564465455974966</v>
       </c>
       <c r="BH24" s="0">
         <v>0</v>
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="0">
-        <v>0.7731160410731297</v>
+        <v>0.82001590668299917</v>
       </c>
       <c r="X25" s="0">
         <v>0</v>
@@ -5350,7 +5350,7 @@
         <v>0</v>
       </c>
       <c r="Y26" s="0">
-        <v>0.76277417799284497</v>
+        <v>0.97757115744987533</v>
       </c>
       <c r="Z26" s="0">
         <v>0</v>
@@ -5556,10 +5556,10 @@
         <v>0</v>
       </c>
       <c r="Y27" s="0">
-        <v>0.8699702192202412</v>
+        <v>0.87869648136617817</v>
       </c>
       <c r="Z27" s="0">
-        <v>0.52950951154704562</v>
+        <v>0.92054388176400692</v>
       </c>
       <c r="AA27" s="0">
         <v>0</v>
@@ -5765,10 +5765,10 @@
         <v>0</v>
       </c>
       <c r="Z28" s="0">
-        <v>0.54797104815659559</v>
+        <v>0.809336152085259</v>
       </c>
       <c r="AA28" s="0">
-        <v>0.57803381947746302</v>
+        <v>0.61539579162460534</v>
       </c>
       <c r="AB28" s="0">
         <v>0</v>
@@ -5974,10 +5974,10 @@
         <v>0</v>
       </c>
       <c r="AA29" s="0">
-        <v>0.81090982357947206</v>
+        <v>0.93072013929115671</v>
       </c>
       <c r="AB29" s="0">
-        <v>0.54998057727735172</v>
+        <v>0.99468173845968122</v>
       </c>
       <c r="AC29" s="0">
         <v>0</v>
@@ -6183,7 +6183,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="0">
-        <v>0.51093867241790303</v>
+        <v>0.98940268609875059</v>
       </c>
       <c r="AC30" s="0">
         <v>0</v>
@@ -6192,10 +6192,10 @@
         <v>0</v>
       </c>
       <c r="AE30" s="0">
-        <v>0.51902922501014637</v>
+        <v>0.55482914298375763</v>
       </c>
       <c r="AF30" s="0">
-        <v>0.61159258265448613</v>
+        <v>0.8177024799586301</v>
       </c>
       <c r="AG30" s="0">
         <v>0</v>
@@ -6589,7 +6589,7 @@
         <v>0</v>
       </c>
       <c r="Z32" s="0">
-        <v>0.66979434420095674</v>
+        <v>0.86565459448331172</v>
       </c>
       <c r="AA32" s="0">
         <v>0</v>
@@ -6685,7 +6685,7 @@
         <v>0</v>
       </c>
       <c r="BF32" s="0">
-        <v>0.55228342666097618</v>
+        <v>0.93353494721574592</v>
       </c>
       <c r="BG32" s="0">
         <v>0</v>
@@ -6810,7 +6810,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="0">
-        <v>0.51432201665482158</v>
+        <v>0.90619168977617837</v>
       </c>
       <c r="AF33" s="0">
         <v>0</v>
@@ -6822,7 +6822,7 @@
         <v>0.89750841222734257</v>
       </c>
       <c r="AI33" s="0">
-        <v>0.56191037077778716</v>
+        <v>0.70357066747376207</v>
       </c>
       <c r="AJ33" s="0">
         <v>0</v>
@@ -7019,10 +7019,10 @@
         <v>0</v>
       </c>
       <c r="AF34" s="0">
-        <v>0.83365310903044221</v>
+        <v>0.97121115889974852</v>
       </c>
       <c r="AG34" s="0">
-        <v>0.7791120825628769</v>
+        <v>0.89750841222734257</v>
       </c>
       <c r="AH34" s="0">
         <v>0</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="AC36" s="0">
-        <v>0.62058074410090036</v>
+        <v>0.96544774658021881</v>
       </c>
       <c r="AD36" s="0">
         <v>0</v>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="AH36" s="0">
-        <v>0.78355193922727207</v>
+        <v>0.92231762534292283</v>
       </c>
       <c r="AI36" s="0">
-        <v>0.58870133965651439</v>
+        <v>0.61731273235003936</v>
       </c>
       <c r="AJ36" s="0">
         <v>0</v>
@@ -7658,7 +7658,7 @@
         <v>0.93628613457163667</v>
       </c>
       <c r="AM37" s="0">
-        <v>0.80347144451506503</v>
+        <v>0.86414242385552975</v>
       </c>
       <c r="AN37" s="0">
         <v>0</v>
@@ -7834,7 +7834,7 @@
         <v>0</v>
       </c>
       <c r="AC38" s="0">
-        <v>0.91480268433615231</v>
+        <v>0.97055840625492129</v>
       </c>
       <c r="AD38" s="0">
         <v>0</v>
@@ -7855,10 +7855,10 @@
         <v>0</v>
       </c>
       <c r="AJ38" s="0">
-        <v>0.5934045536399345</v>
+        <v>0.82748773466445424</v>
       </c>
       <c r="AK38" s="0">
-        <v>0.52615267859394588</v>
+        <v>0.93628613457163667</v>
       </c>
       <c r="AL38" s="0">
         <v>0</v>
@@ -8067,7 +8067,7 @@
         <v>0.86414242385552975</v>
       </c>
       <c r="AL39" s="0">
-        <v>0.78619265923486181</v>
+        <v>0.91250236288909969</v>
       </c>
       <c r="AM39" s="0">
         <v>0</v>
@@ -8100,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="AW39" s="0">
-        <v>0.77686206426024051</v>
+        <v>0.91340391967738133</v>
       </c>
       <c r="AX39" s="0">
         <v>0</v>
@@ -8234,13 +8234,13 @@
         <v>0</v>
       </c>
       <c r="Y40" s="0">
-        <v>0.938353437899067</v>
+        <v>0.9468513923818529</v>
       </c>
       <c r="Z40" s="0">
         <v>0</v>
       </c>
       <c r="AA40" s="0">
-        <v>0.89556688887331148</v>
+        <v>0.92175908770683612</v>
       </c>
       <c r="AB40" s="0">
         <v>0</v>
@@ -8273,10 +8273,10 @@
         <v>0</v>
       </c>
       <c r="AL40" s="0">
-        <v>0.53637385372062119</v>
+        <v>0.62840475633037207</v>
       </c>
       <c r="AM40" s="0">
-        <v>0.78262242801412429</v>
+        <v>0.92684240227354775</v>
       </c>
       <c r="AN40" s="0">
         <v>0</v>
@@ -8482,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="AM41" s="0">
-        <v>0.90091731066364111</v>
+        <v>0.98615671880559419</v>
       </c>
       <c r="AN41" s="0">
         <v>0</v>
@@ -8491,10 +8491,10 @@
         <v>0</v>
       </c>
       <c r="AP41" s="0">
-        <v>0.742222812515416</v>
+        <v>0.90076068442186807</v>
       </c>
       <c r="AQ41" s="0">
-        <v>0.77511742929017879</v>
+        <v>0.97428434997633029</v>
       </c>
       <c r="AR41" s="0">
         <v>0</v>
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
       <c r="AI43" s="0">
-        <v>0.51771171822724327</v>
+        <v>0.93675338028019617</v>
       </c>
       <c r="AJ43" s="0">
         <v>0</v>
@@ -8903,7 +8903,7 @@
         <v>0.97428434997633029</v>
       </c>
       <c r="AP43" s="0">
-        <v>0.65469057676724129</v>
+        <v>0.66286360016570955</v>
       </c>
       <c r="AQ43" s="0">
         <v>0</v>
@@ -8912,7 +8912,7 @@
         <v>0.85438752556072373</v>
       </c>
       <c r="AS43" s="0">
-        <v>0.84890034874065334</v>
+        <v>0.87240994951815143</v>
       </c>
       <c r="AT43" s="0">
         <v>0</v>
@@ -9109,19 +9109,19 @@
         <v>0</v>
       </c>
       <c r="AP44" s="0">
-        <v>0.58825124897053671</v>
+        <v>0.7264733862682875</v>
       </c>
       <c r="AQ44" s="0">
-        <v>0.83991498065518644</v>
+        <v>0.85438752556072373</v>
       </c>
       <c r="AR44" s="0">
         <v>0</v>
       </c>
       <c r="AS44" s="0">
-        <v>0.58211931208387147</v>
+        <v>0.58421234517551501</v>
       </c>
       <c r="AT44" s="0">
-        <v>0.51917527349580406</v>
+        <v>0.85683983638162908</v>
       </c>
       <c r="AU44" s="0">
         <v>0</v>
@@ -9342,7 +9342,7 @@
         <v>0</v>
       </c>
       <c r="AY45" s="0">
-        <v>0.64001066125268335</v>
+        <v>0.99841892731765824</v>
       </c>
       <c r="AZ45" s="0">
         <v>0.98866599095255769</v>
@@ -9530,7 +9530,7 @@
         <v>0.85683983638162908</v>
       </c>
       <c r="AS46" s="0">
-        <v>0.50192157373617796</v>
+        <v>0.7670561656493512</v>
       </c>
       <c r="AT46" s="0">
         <v>0</v>
@@ -9539,7 +9539,7 @@
         <v>0.84336875616624818</v>
       </c>
       <c r="AV46" s="0">
-        <v>0.59638526821404281</v>
+        <v>0.65321689236016423</v>
       </c>
       <c r="AW46" s="0">
         <v>0</v>
@@ -9679,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="Z47" s="0">
-        <v>0.59870432381018857</v>
+        <v>0.73444551267948377</v>
       </c>
       <c r="AA47" s="0">
         <v>0</v>
@@ -9739,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="AT47" s="0">
-        <v>0.61494268663992757</v>
+        <v>0.84336875616624818</v>
       </c>
       <c r="AU47" s="0">
         <v>0</v>
@@ -9748,7 +9748,7 @@
         <v>0</v>
       </c>
       <c r="AW47" s="0">
-        <v>0.73319224348355405</v>
+        <v>0.92791653527144102</v>
       </c>
       <c r="AX47" s="0">
         <v>0</v>
@@ -9828,7 +9828,7 @@
         <v>0</v>
       </c>
       <c r="G48" s="0">
-        <v>0.8663955830512543</v>
+        <v>0.99287935847118991</v>
       </c>
       <c r="H48" s="0">
         <v>0</v>
@@ -9879,7 +9879,7 @@
         <v>0</v>
       </c>
       <c r="X48" s="0">
-        <v>0.62162477350403722</v>
+        <v>0.67479280735778957</v>
       </c>
       <c r="Y48" s="0">
         <v>0</v>
@@ -10166,7 +10166,7 @@
         <v>0</v>
       </c>
       <c r="AY49" s="0">
-        <v>0.53538040571859236</v>
+        <v>0.98131681620891342</v>
       </c>
       <c r="AZ49" s="0">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>0</v>
       </c>
       <c r="AV50" s="0">
-        <v>0.555095258250631</v>
+        <v>0.74642678876582347</v>
       </c>
       <c r="AW50" s="0">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="AY50" s="0">
-        <v>0.57090403889448771</v>
+        <v>0.63166854372836334</v>
       </c>
       <c r="AZ50" s="0">
         <v>0.96311554673882016</v>
@@ -10766,7 +10766,7 @@
         <v>0</v>
       </c>
       <c r="AS52" s="0">
-        <v>0.92394353492150116</v>
+        <v>0.98866599095255769</v>
       </c>
       <c r="AT52" s="0">
         <v>0</v>
@@ -10781,7 +10781,7 @@
         <v>0</v>
       </c>
       <c r="AX52" s="0">
-        <v>0.67270300988968779</v>
+        <v>0.96311554673882016</v>
       </c>
       <c r="AY52" s="0">
         <v>0</v>
@@ -10990,10 +10990,10 @@
         <v>0</v>
       </c>
       <c r="AY53" s="0">
-        <v>0.83074681981193343</v>
+        <v>0.87604536631793684</v>
       </c>
       <c r="AZ53" s="0">
-        <v>0.85452600599191053</v>
+        <v>0.97508311771472977</v>
       </c>
       <c r="BA53" s="0">
         <v>0</v>
@@ -11032,7 +11032,7 @@
         <v>0</v>
       </c>
       <c r="BM53" s="0">
-        <v>0.75148564518162986</v>
+        <v>0.92657937928518708</v>
       </c>
       <c r="BN53" s="0">
         <v>0</v>
@@ -11208,7 +11208,7 @@
         <v>0</v>
       </c>
       <c r="BC54" s="0">
-        <v>0.55357923649400176</v>
+        <v>0.84899549577922795</v>
       </c>
       <c r="BD54" s="0">
         <v>0.83633385883594036</v>
@@ -11417,10 +11417,10 @@
         <v>0</v>
       </c>
       <c r="BD55" s="0">
-        <v>0.75356295960111175</v>
+        <v>0.90734968146235473</v>
       </c>
       <c r="BE55" s="0">
-        <v>0.82800525038914463</v>
+        <v>0.91074741798569447</v>
       </c>
       <c r="BF55" s="0">
         <v>0</v>
@@ -11617,7 +11617,7 @@
         <v>0</v>
       </c>
       <c r="BB56" s="0">
-        <v>0.76052036909194509</v>
+        <v>0.83633385883594036</v>
       </c>
       <c r="BC56" s="0">
         <v>0.90734968146235473</v>
@@ -11626,10 +11626,10 @@
         <v>0</v>
       </c>
       <c r="BE56" s="0">
-        <v>0.77168400336996301</v>
+        <v>0.91129212539136262</v>
       </c>
       <c r="BF56" s="0">
-        <v>0.59811528836863381</v>
+        <v>0.96571211321581374</v>
       </c>
       <c r="BG56" s="0">
         <v>0</v>
@@ -11847,7 +11847,7 @@
         <v>0</v>
       </c>
       <c r="BJ57" s="0">
-        <v>0.76122631001972918</v>
+        <v>0.9258377414690534</v>
       </c>
       <c r="BK57" s="0">
         <v>0</v>
@@ -12047,7 +12047,7 @@
         <v>0</v>
       </c>
       <c r="BH58" s="0">
-        <v>0.56006244607315037</v>
+        <v>0.79073977968261799</v>
       </c>
       <c r="BI58" s="0">
         <v>0</v>
@@ -12232,7 +12232,7 @@
         <v>0</v>
       </c>
       <c r="BA59" s="0">
-        <v>0.84987066517625864</v>
+        <v>0.99809032821890087</v>
       </c>
       <c r="BB59" s="0">
         <v>0</v>
@@ -12256,7 +12256,7 @@
         <v>0.98526481623615703</v>
       </c>
       <c r="BI59" s="0">
-        <v>0.60958971723837851</v>
+        <v>0.67249957114915637</v>
       </c>
       <c r="BJ59" s="0">
         <v>0</v>
@@ -12456,13 +12456,13 @@
         <v>0.79073977968261799</v>
       </c>
       <c r="BG60" s="0">
-        <v>0.60911199820660267</v>
+        <v>0.98526481623615703</v>
       </c>
       <c r="BH60" s="0">
         <v>0</v>
       </c>
       <c r="BI60" s="0">
-        <v>0.64104829259306506</v>
+        <v>0.67100643651922942</v>
       </c>
       <c r="BJ60" s="0">
         <v>0.96582138677041418</v>
@@ -12671,7 +12671,7 @@
         <v>0</v>
       </c>
       <c r="BJ61" s="0">
-        <v>0.50622557990197425</v>
+        <v>0.51241644686344179</v>
       </c>
       <c r="BK61" s="0">
         <v>0.60121123649746733</v>
@@ -12727,7 +12727,7 @@
         <v>0</v>
       </c>
       <c r="L62" s="0">
-        <v>0.61692912502034614</v>
+        <v>0.68114749142279551</v>
       </c>
       <c r="M62" s="0">
         <v>0</v>
@@ -12793,7 +12793,7 @@
         <v>0</v>
       </c>
       <c r="AH62" s="0">
-        <v>0.74329513773580747</v>
+        <v>0.92752872197023539</v>
       </c>
       <c r="AI62" s="0">
         <v>0</v>
@@ -12871,7 +12871,7 @@
         <v>0</v>
       </c>
       <c r="BH62" s="0">
-        <v>0.90932490769024632</v>
+        <v>0.96582138677041418</v>
       </c>
       <c r="BI62" s="0">
         <v>0.51241644686344179</v>
@@ -12883,7 +12883,7 @@
         <v>0</v>
       </c>
       <c r="BL62" s="0">
-        <v>0.74027564366981224</v>
+        <v>0.85853818189086528</v>
       </c>
       <c r="BM62" s="0">
         <v>0</v>
@@ -13080,7 +13080,7 @@
         <v>0</v>
       </c>
       <c r="BI63" s="0">
-        <v>0.51153119114157053</v>
+        <v>0.60121123649746733</v>
       </c>
       <c r="BJ63" s="0">
         <v>0</v>
@@ -13092,7 +13092,7 @@
         <v>0.85706621768748259</v>
       </c>
       <c r="BM63" s="0">
-        <v>0.71609554377987727</v>
+        <v>0.93897052273016723</v>
       </c>
       <c r="BN63" s="0">
         <v>0</v>
@@ -13292,7 +13292,7 @@
         <v>0.85853818189086528</v>
       </c>
       <c r="BK64" s="0">
-        <v>0.85568228404422042</v>
+        <v>0.85706621768748259</v>
       </c>
       <c r="BL64" s="0">
         <v>0</v>
@@ -13301,7 +13301,7 @@
         <v>0</v>
       </c>
       <c r="BN64" s="0">
-        <v>0.53226217107878804</v>
+        <v>0.97958943298950252</v>
       </c>
       <c r="BO64" s="0">
         <v>0</v>
@@ -13402,7 +13402,7 @@
         <v>0</v>
       </c>
       <c r="AE65" s="0">
-        <v>0.67772492360844327</v>
+        <v>0.89832509211338518</v>
       </c>
       <c r="AF65" s="0">
         <v>0</v>
@@ -13507,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="BN65" s="0">
-        <v>0.60619040501735988</v>
+        <v>0.99313793679051532</v>
       </c>
       <c r="BO65" s="0">
         <v>0.97204627321028858</v>
@@ -13719,12 +13719,12 @@
         <v>0.69384978768741856</v>
       </c>
       <c r="BP66" s="0">
-        <v>0.58556581623879422</v>
+        <v>0.63069019655098946</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0">
-        <v>0.52837215017963102</v>
+        <v>0.52975439074784181</v>
       </c>
       <c r="B67" s="0">
         <v>0</v>
@@ -13916,16 +13916,16 @@
         <v>0</v>
       </c>
       <c r="BM67" s="0">
-        <v>0.50692495793989001</v>
+        <v>0.97204627321028858</v>
       </c>
       <c r="BN67" s="0">
-        <v>0.66963911099367768</v>
+        <v>0.69384978768741856</v>
       </c>
       <c r="BO67" s="0">
         <v>0</v>
       </c>
       <c r="BP67" s="0">
-        <v>0.64594000959049436</v>
+        <v>0.77598657006122185</v>
       </c>
     </row>
     <row r="68">
@@ -14092,7 +14092,7 @@
         <v>0</v>
       </c>
       <c r="BC68" s="0">
-        <v>0.62028528069931199</v>
+        <v>0.8417949359619461</v>
       </c>
       <c r="BD68" s="0">
         <v>0</v>
